--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/IS381 2026 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA27EC62-3B46-2F48-83D9-79D3EA61404E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2D2142-1D55-144D-9BCE-C870CB90DA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="13680" windowWidth="24780" windowHeight="14160" xr2:uid="{BFE2A6F7-E8E8-014E-9460-2468D969C60C}"/>
+    <workbookView xWindow="11680" yWindow="11120" windowWidth="24780" windowHeight="14160" xr2:uid="{BFE2A6F7-E8E8-014E-9460-2468D969C60C}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I16"/>
+      <selection activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1392,9 +1392,6 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
       <c r="B12" s="3">
         <f t="shared" si="2"/>
         <v>46118</v>
@@ -1409,7 +1406,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="2"/>
@@ -1435,7 +1432,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="2"/>
@@ -1460,6 +1457,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
       <c r="B15" s="3">
         <f t="shared" si="2"/>
         <v>46139</v>
